--- a/設計書/01_基本設計（外部設計）/プロパティ一覧.xlsx
+++ b/設計書/01_基本設計（外部設計）/プロパティ一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1350" windowWidth="23715" windowHeight="9465" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="210" yWindow="1365" windowWidth="23715" windowHeight="9450" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>プロジェクト</t>
   </si>
@@ -222,13 +222,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>値</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -247,11 +240,55 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ファイルパス</t>
+    <t>HTML5のvalidateチェックを行うかどうかのフラグ（true：チェックなし、false：チェックあり）</t>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>月報ファイルの保存先ディレクトリ</t>
+    <t>datasource</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>値（入力例）</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>spring.datasource.url</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>spring.datasource.username</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>spring.datasource.password</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>spring.datasource.initialize</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>jdbc:mysql://localhost:3306/mmsdb</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>./file_storage/report</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>月報ファイルの保存先ディレクトリ（絶対パス、相対パスどちらでも可）</t>
     <rPh sb="0" eb="2">
       <t>ゲッポウ</t>
     </rPh>
@@ -261,13 +298,35 @@
     <rPh sb="9" eb="10">
       <t>サキ</t>
     </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>HTML5のvalidateチェックを行うかどうかのフラグ（true：チェックなし、false：チェックあり）</t>
-    <rPh sb="19" eb="20">
-      <t>オコナ</t>
-    </rPh>
+    <t>user01</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t># JDBC url of the database.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>true or false</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t># Populate the database using 'data.sql'.</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1103,6 +1162,141 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1112,33 +1306,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,124 +1342,16 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1776,7 +1835,7 @@
   </sheetPr>
   <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1788,201 +1847,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="74" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="90" t="str">
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="94" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="74" t="s">
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74" t="s">
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74" t="s">
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74" t="s">
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="75"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="80"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="76" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77" t="str">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="82" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="78">
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="83">
         <v>73050</v>
       </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="80" t="s">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="86"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="81" t="str">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="92" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="81" t="str">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58" t="str">
         <f>設定情報!$C$5</f>
         <v>プロパティ一覧</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="83"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="87"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -2150,1098 +2209,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="93" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="93" t="s">
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="94"/>
-      <c r="AJ7" s="94"/>
-      <c r="AK7" s="94"/>
-      <c r="AL7" s="94"/>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="94"/>
-      <c r="AR7" s="94"/>
-      <c r="AS7" s="94"/>
-      <c r="AT7" s="94"/>
-      <c r="AU7" s="94"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="94"/>
-      <c r="AX7" s="94"/>
-      <c r="AY7" s="95"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="61"/>
       <c r="AZ7" s="11"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="107"/>
-      <c r="AK8" s="107"/>
-      <c r="AL8" s="107"/>
-      <c r="AM8" s="107"/>
-      <c r="AN8" s="107"/>
-      <c r="AO8" s="107"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="107"/>
-      <c r="AX8" s="107"/>
-      <c r="AY8" s="108"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="76"/>
       <c r="AZ8" s="14"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="56">
+      <c r="B9" s="50">
         <v>1</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53">
         <v>73050</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="99" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="53" t="s">
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="55"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="67"/>
       <c r="AZ9" s="14"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="55"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="67"/>
       <c r="AZ10" s="14"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="55"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="66"/>
+      <c r="AW11" s="66"/>
+      <c r="AX11" s="66"/>
+      <c r="AY11" s="67"/>
       <c r="AZ11" s="14"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="54"/>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="54"/>
-      <c r="AY12" s="55"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="67"/>
       <c r="AZ12" s="14"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="55"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="66"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="66"/>
+      <c r="AY13" s="67"/>
       <c r="AZ13" s="14"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="54"/>
-      <c r="AR14" s="54"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="54"/>
-      <c r="AV14" s="54"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
-      <c r="AY14" s="55"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="66"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="67"/>
       <c r="AZ14" s="14"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="54"/>
-      <c r="AU15" s="54"/>
-      <c r="AV15" s="54"/>
-      <c r="AW15" s="54"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="55"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="66"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="67"/>
       <c r="AZ15" s="14"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="54"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="55"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="66"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="66"/>
+      <c r="AW16" s="66"/>
+      <c r="AX16" s="66"/>
+      <c r="AY16" s="67"/>
       <c r="AZ16" s="14"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="55"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="67"/>
       <c r="AZ17" s="14"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="55"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="66"/>
+      <c r="AV18" s="66"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="67"/>
       <c r="AZ18" s="14"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="54"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="55"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="67"/>
       <c r="AZ19" s="14"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="54"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="54"/>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="54"/>
-      <c r="AS20" s="54"/>
-      <c r="AT20" s="54"/>
-      <c r="AU20" s="54"/>
-      <c r="AV20" s="54"/>
-      <c r="AW20" s="54"/>
-      <c r="AX20" s="54"/>
-      <c r="AY20" s="55"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="67"/>
       <c r="AZ20" s="14"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="55"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="67"/>
       <c r="AZ21" s="14"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="54"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="54"/>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="54"/>
-      <c r="AN22" s="54"/>
-      <c r="AO22" s="54"/>
-      <c r="AP22" s="54"/>
-      <c r="AQ22" s="54"/>
-      <c r="AR22" s="54"/>
-      <c r="AS22" s="54"/>
-      <c r="AT22" s="54"/>
-      <c r="AU22" s="54"/>
-      <c r="AV22" s="54"/>
-      <c r="AW22" s="54"/>
-      <c r="AX22" s="54"/>
-      <c r="AY22" s="55"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="67"/>
       <c r="AZ22" s="14"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="54"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="54"/>
-      <c r="AM23" s="54"/>
-      <c r="AN23" s="54"/>
-      <c r="AO23" s="54"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="54"/>
-      <c r="AU23" s="54"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="55"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="67"/>
       <c r="AZ23" s="14"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="54"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="54"/>
-      <c r="AG24" s="54"/>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="54"/>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="54"/>
-      <c r="AL24" s="54"/>
-      <c r="AM24" s="54"/>
-      <c r="AN24" s="54"/>
-      <c r="AO24" s="54"/>
-      <c r="AP24" s="54"/>
-      <c r="AQ24" s="54"/>
-      <c r="AR24" s="54"/>
-      <c r="AS24" s="54"/>
-      <c r="AT24" s="54"/>
-      <c r="AU24" s="54"/>
-      <c r="AV24" s="54"/>
-      <c r="AW24" s="54"/>
-      <c r="AX24" s="54"/>
-      <c r="AY24" s="55"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="67"/>
       <c r="AZ24" s="14"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="54"/>
-      <c r="AM25" s="54"/>
-      <c r="AN25" s="54"/>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="54"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="54"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="54"/>
-      <c r="AU25" s="54"/>
-      <c r="AV25" s="54"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="55"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="66"/>
+      <c r="AV25" s="66"/>
+      <c r="AW25" s="66"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="67"/>
       <c r="AZ25" s="14"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="72"/>
-      <c r="AL26" s="72"/>
-      <c r="AM26" s="72"/>
-      <c r="AN26" s="72"/>
-      <c r="AO26" s="72"/>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="72"/>
-      <c r="AS26" s="72"/>
-      <c r="AT26" s="72"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="72"/>
-      <c r="AW26" s="72"/>
-      <c r="AX26" s="72"/>
-      <c r="AY26" s="73"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="108"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="108"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="108"/>
+      <c r="AL26" s="108"/>
+      <c r="AM26" s="108"/>
+      <c r="AN26" s="108"/>
+      <c r="AO26" s="108"/>
+      <c r="AP26" s="108"/>
+      <c r="AQ26" s="108"/>
+      <c r="AR26" s="108"/>
+      <c r="AS26" s="108"/>
+      <c r="AT26" s="108"/>
+      <c r="AU26" s="108"/>
+      <c r="AV26" s="108"/>
+      <c r="AW26" s="108"/>
+      <c r="AX26" s="108"/>
+      <c r="AY26" s="109"/>
       <c r="AZ26" s="12"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3354,20 +3413,73 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:AY25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:AY24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="B7:D7"/>
@@ -3384,73 +3496,20 @@
     <mergeCell ref="Q8:AY8"/>
     <mergeCell ref="Q9:AY9"/>
     <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:AY24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -3470,10 +3529,10 @@
   </sheetPr>
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E10" sqref="E10:J10"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14:AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3482,201 +3541,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>application.properties</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="74" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="90" t="str">
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="94" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="74" t="s">
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74" t="s">
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74" t="s">
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74" t="s">
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="74"/>
+      <c r="AY1" s="79"/>
       <c r="AZ1" s="114"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="76" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77" t="str">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="82" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="78">
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="83">
         <v>42619</v>
       </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="80" t="s">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="86"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="81" t="str">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="92" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="81" t="str">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58" t="str">
         <f>設定情報!$C$5</f>
         <v>プロパティ一覧</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="83"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="87"/>
     </row>
     <row r="4" spans="1:52" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
@@ -3704,7 +3763,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
@@ -3715,7 +3774,7 @@
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
       <c r="AB4" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC4" s="24"/>
       <c r="AD4" s="24"/>
@@ -3864,9 +3923,9 @@
       <c r="F7" s="111"/>
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
+      <c r="I7" s="113"/>
       <c r="J7" s="110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="111"/>
       <c r="L7" s="111"/>
@@ -3875,9 +3934,9 @@
       <c r="O7" s="111"/>
       <c r="P7" s="111"/>
       <c r="Q7" s="111"/>
-      <c r="R7" s="112"/>
+      <c r="R7" s="113"/>
       <c r="S7" s="110" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="T7" s="111"/>
       <c r="U7" s="111"/>
@@ -3886,9 +3945,9 @@
       <c r="X7" s="111"/>
       <c r="Y7" s="111"/>
       <c r="Z7" s="111"/>
-      <c r="AA7" s="112"/>
+      <c r="AA7" s="113"/>
       <c r="AB7" s="110" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC7" s="111"/>
       <c r="AD7" s="111"/>
@@ -3913,7 +3972,7 @@
       <c r="AW7" s="111"/>
       <c r="AX7" s="111"/>
       <c r="AY7" s="111"/>
-      <c r="AZ7" s="113"/>
+      <c r="AZ7" s="112"/>
     </row>
     <row r="8" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49">
@@ -3921,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="111"/>
       <c r="D8" s="111"/>
@@ -3929,9 +3988,9 @@
       <c r="F8" s="111"/>
       <c r="G8" s="111"/>
       <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
+      <c r="I8" s="113"/>
       <c r="J8" s="110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="111"/>
       <c r="L8" s="111"/>
@@ -3940,9 +3999,9 @@
       <c r="O8" s="111"/>
       <c r="P8" s="111"/>
       <c r="Q8" s="111"/>
-      <c r="R8" s="112"/>
+      <c r="R8" s="113"/>
       <c r="S8" s="110" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="T8" s="111"/>
       <c r="U8" s="111"/>
@@ -3951,9 +4010,9 @@
       <c r="X8" s="111"/>
       <c r="Y8" s="111"/>
       <c r="Z8" s="111"/>
-      <c r="AA8" s="112"/>
+      <c r="AA8" s="113"/>
       <c r="AB8" s="110" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AC8" s="111"/>
       <c r="AD8" s="111"/>
@@ -3978,7 +4037,7 @@
       <c r="AW8" s="111"/>
       <c r="AX8" s="111"/>
       <c r="AY8" s="111"/>
-      <c r="AZ8" s="113"/>
+      <c r="AZ8" s="112"/>
     </row>
     <row r="9" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="str">
@@ -3992,7 +4051,7 @@
       <c r="F9" s="111"/>
       <c r="G9" s="111"/>
       <c r="H9" s="111"/>
-      <c r="I9" s="112"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="110"/>
       <c r="K9" s="111"/>
       <c r="L9" s="111"/>
@@ -4001,7 +4060,7 @@
       <c r="O9" s="111"/>
       <c r="P9" s="111"/>
       <c r="Q9" s="111"/>
-      <c r="R9" s="112"/>
+      <c r="R9" s="113"/>
       <c r="S9" s="110"/>
       <c r="T9" s="111"/>
       <c r="U9" s="111"/>
@@ -4010,7 +4069,7 @@
       <c r="X9" s="111"/>
       <c r="Y9" s="111"/>
       <c r="Z9" s="111"/>
-      <c r="AA9" s="112"/>
+      <c r="AA9" s="113"/>
       <c r="AB9" s="110"/>
       <c r="AC9" s="111"/>
       <c r="AD9" s="111"/>
@@ -4035,22 +4094,26 @@
       <c r="AW9" s="111"/>
       <c r="AX9" s="111"/>
       <c r="AY9" s="111"/>
-      <c r="AZ9" s="113"/>
+      <c r="AZ9" s="112"/>
     </row>
     <row r="10" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49" t="str">
-        <f>IF(J10="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
-      <c r="B10" s="110"/>
+      <c r="A10" s="49">
+        <f ca="1">IF(J10="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" s="111"/>
       <c r="D10" s="111"/>
       <c r="E10" s="111"/>
       <c r="F10" s="111"/>
       <c r="G10" s="111"/>
       <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="110"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="110" t="s">
+        <v>39</v>
+      </c>
       <c r="K10" s="111"/>
       <c r="L10" s="111"/>
       <c r="M10" s="111"/>
@@ -4058,8 +4121,10 @@
       <c r="O10" s="111"/>
       <c r="P10" s="111"/>
       <c r="Q10" s="111"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="110"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="110" t="s">
+        <v>43</v>
+      </c>
       <c r="T10" s="111"/>
       <c r="U10" s="111"/>
       <c r="V10" s="111"/>
@@ -4067,8 +4132,10 @@
       <c r="X10" s="111"/>
       <c r="Y10" s="111"/>
       <c r="Z10" s="111"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="110"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="110" t="s">
+        <v>48</v>
+      </c>
       <c r="AC10" s="111"/>
       <c r="AD10" s="111"/>
       <c r="AE10" s="111"/>
@@ -4092,12 +4159,12 @@
       <c r="AW10" s="111"/>
       <c r="AX10" s="111"/>
       <c r="AY10" s="111"/>
-      <c r="AZ10" s="113"/>
+      <c r="AZ10" s="112"/>
     </row>
     <row r="11" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49" t="str">
-        <f>IF(J11="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
+      <c r="A11" s="49">
+        <f ca="1">IF(J11="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>4</v>
       </c>
       <c r="B11" s="110"/>
       <c r="C11" s="111"/>
@@ -4106,8 +4173,10 @@
       <c r="F11" s="111"/>
       <c r="G11" s="111"/>
       <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="110"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="110" t="s">
+        <v>40</v>
+      </c>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
       <c r="M11" s="111"/>
@@ -4115,8 +4184,10 @@
       <c r="O11" s="111"/>
       <c r="P11" s="111"/>
       <c r="Q11" s="111"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="110"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="110" t="s">
+        <v>46</v>
+      </c>
       <c r="T11" s="111"/>
       <c r="U11" s="111"/>
       <c r="V11" s="111"/>
@@ -4124,7 +4195,7 @@
       <c r="X11" s="111"/>
       <c r="Y11" s="111"/>
       <c r="Z11" s="111"/>
-      <c r="AA11" s="112"/>
+      <c r="AA11" s="113"/>
       <c r="AB11" s="110"/>
       <c r="AC11" s="111"/>
       <c r="AD11" s="111"/>
@@ -4149,12 +4220,12 @@
       <c r="AW11" s="111"/>
       <c r="AX11" s="111"/>
       <c r="AY11" s="111"/>
-      <c r="AZ11" s="113"/>
+      <c r="AZ11" s="112"/>
     </row>
     <row r="12" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49" t="str">
-        <f>IF(J12="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
+      <c r="A12" s="49">
+        <f ca="1">IF(J12="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>5</v>
       </c>
       <c r="B12" s="110"/>
       <c r="C12" s="111"/>
@@ -4163,8 +4234,10 @@
       <c r="F12" s="111"/>
       <c r="G12" s="111"/>
       <c r="H12" s="111"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="110"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="110" t="s">
+        <v>41</v>
+      </c>
       <c r="K12" s="111"/>
       <c r="L12" s="111"/>
       <c r="M12" s="111"/>
@@ -4172,8 +4245,10 @@
       <c r="O12" s="111"/>
       <c r="P12" s="111"/>
       <c r="Q12" s="111"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="110"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="110" t="s">
+        <v>47</v>
+      </c>
       <c r="T12" s="111"/>
       <c r="U12" s="111"/>
       <c r="V12" s="111"/>
@@ -4181,7 +4256,7 @@
       <c r="X12" s="111"/>
       <c r="Y12" s="111"/>
       <c r="Z12" s="111"/>
-      <c r="AA12" s="112"/>
+      <c r="AA12" s="113"/>
       <c r="AB12" s="110"/>
       <c r="AC12" s="111"/>
       <c r="AD12" s="111"/>
@@ -4206,12 +4281,12 @@
       <c r="AW12" s="111"/>
       <c r="AX12" s="111"/>
       <c r="AY12" s="111"/>
-      <c r="AZ12" s="113"/>
+      <c r="AZ12" s="112"/>
     </row>
     <row r="13" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49" t="str">
-        <f>IF(J13="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
+      <c r="A13" s="49">
+        <f ca="1">IF(J13="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>6</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -4220,8 +4295,10 @@
       <c r="F13" s="111"/>
       <c r="G13" s="111"/>
       <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="110"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="110" t="s">
+        <v>42</v>
+      </c>
       <c r="K13" s="111"/>
       <c r="L13" s="111"/>
       <c r="M13" s="111"/>
@@ -4229,8 +4306,10 @@
       <c r="O13" s="111"/>
       <c r="P13" s="111"/>
       <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="110"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="110" t="s">
+        <v>51</v>
+      </c>
       <c r="T13" s="111"/>
       <c r="U13" s="111"/>
       <c r="V13" s="111"/>
@@ -4238,8 +4317,10 @@
       <c r="X13" s="111"/>
       <c r="Y13" s="111"/>
       <c r="Z13" s="111"/>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="110"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="110" t="s">
+        <v>50</v>
+      </c>
       <c r="AC13" s="111"/>
       <c r="AD13" s="111"/>
       <c r="AE13" s="111"/>
@@ -4263,7 +4344,7 @@
       <c r="AW13" s="111"/>
       <c r="AX13" s="111"/>
       <c r="AY13" s="111"/>
-      <c r="AZ13" s="113"/>
+      <c r="AZ13" s="112"/>
     </row>
     <row r="14" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="str">
@@ -4277,7 +4358,7 @@
       <c r="F14" s="111"/>
       <c r="G14" s="111"/>
       <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
+      <c r="I14" s="113"/>
       <c r="J14" s="110"/>
       <c r="K14" s="111"/>
       <c r="L14" s="111"/>
@@ -4286,7 +4367,7 @@
       <c r="O14" s="111"/>
       <c r="P14" s="111"/>
       <c r="Q14" s="111"/>
-      <c r="R14" s="112"/>
+      <c r="R14" s="113"/>
       <c r="S14" s="110"/>
       <c r="T14" s="111"/>
       <c r="U14" s="111"/>
@@ -4295,7 +4376,7 @@
       <c r="X14" s="111"/>
       <c r="Y14" s="111"/>
       <c r="Z14" s="111"/>
-      <c r="AA14" s="112"/>
+      <c r="AA14" s="113"/>
       <c r="AB14" s="110"/>
       <c r="AC14" s="111"/>
       <c r="AD14" s="111"/>
@@ -4320,7 +4401,7 @@
       <c r="AW14" s="111"/>
       <c r="AX14" s="111"/>
       <c r="AY14" s="111"/>
-      <c r="AZ14" s="113"/>
+      <c r="AZ14" s="112"/>
     </row>
     <row r="15" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="str">
@@ -4334,7 +4415,7 @@
       <c r="F15" s="111"/>
       <c r="G15" s="111"/>
       <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="110"/>
       <c r="K15" s="111"/>
       <c r="L15" s="111"/>
@@ -4343,7 +4424,7 @@
       <c r="O15" s="111"/>
       <c r="P15" s="111"/>
       <c r="Q15" s="111"/>
-      <c r="R15" s="112"/>
+      <c r="R15" s="113"/>
       <c r="S15" s="110"/>
       <c r="T15" s="111"/>
       <c r="U15" s="111"/>
@@ -4352,7 +4433,7 @@
       <c r="X15" s="111"/>
       <c r="Y15" s="111"/>
       <c r="Z15" s="111"/>
-      <c r="AA15" s="112"/>
+      <c r="AA15" s="113"/>
       <c r="AB15" s="110"/>
       <c r="AC15" s="111"/>
       <c r="AD15" s="111"/>
@@ -4377,7 +4458,7 @@
       <c r="AW15" s="111"/>
       <c r="AX15" s="111"/>
       <c r="AY15" s="111"/>
-      <c r="AZ15" s="113"/>
+      <c r="AZ15" s="112"/>
     </row>
     <row r="16" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="str">
@@ -4391,7 +4472,7 @@
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
       <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="110"/>
       <c r="K16" s="111"/>
       <c r="L16" s="111"/>
@@ -4400,7 +4481,7 @@
       <c r="O16" s="111"/>
       <c r="P16" s="111"/>
       <c r="Q16" s="111"/>
-      <c r="R16" s="112"/>
+      <c r="R16" s="113"/>
       <c r="S16" s="110"/>
       <c r="T16" s="111"/>
       <c r="U16" s="111"/>
@@ -4409,7 +4490,7 @@
       <c r="X16" s="111"/>
       <c r="Y16" s="111"/>
       <c r="Z16" s="111"/>
-      <c r="AA16" s="112"/>
+      <c r="AA16" s="113"/>
       <c r="AB16" s="110"/>
       <c r="AC16" s="111"/>
       <c r="AD16" s="111"/>
@@ -4434,7 +4515,7 @@
       <c r="AW16" s="111"/>
       <c r="AX16" s="111"/>
       <c r="AY16" s="111"/>
-      <c r="AZ16" s="113"/>
+      <c r="AZ16" s="112"/>
     </row>
     <row r="17" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="str">
@@ -4448,7 +4529,7 @@
       <c r="F17" s="111"/>
       <c r="G17" s="111"/>
       <c r="H17" s="111"/>
-      <c r="I17" s="112"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="110"/>
       <c r="K17" s="111"/>
       <c r="L17" s="111"/>
@@ -4457,7 +4538,7 @@
       <c r="O17" s="111"/>
       <c r="P17" s="111"/>
       <c r="Q17" s="111"/>
-      <c r="R17" s="112"/>
+      <c r="R17" s="113"/>
       <c r="S17" s="110"/>
       <c r="T17" s="111"/>
       <c r="U17" s="111"/>
@@ -4466,7 +4547,7 @@
       <c r="X17" s="111"/>
       <c r="Y17" s="111"/>
       <c r="Z17" s="111"/>
-      <c r="AA17" s="112"/>
+      <c r="AA17" s="113"/>
       <c r="AB17" s="110"/>
       <c r="AC17" s="111"/>
       <c r="AD17" s="111"/>
@@ -4491,7 +4572,7 @@
       <c r="AW17" s="111"/>
       <c r="AX17" s="111"/>
       <c r="AY17" s="111"/>
-      <c r="AZ17" s="113"/>
+      <c r="AZ17" s="112"/>
     </row>
     <row r="18" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="str">
@@ -4505,7 +4586,7 @@
       <c r="F18" s="111"/>
       <c r="G18" s="111"/>
       <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
+      <c r="I18" s="113"/>
       <c r="J18" s="110"/>
       <c r="K18" s="111"/>
       <c r="L18" s="111"/>
@@ -4514,7 +4595,7 @@
       <c r="O18" s="111"/>
       <c r="P18" s="111"/>
       <c r="Q18" s="111"/>
-      <c r="R18" s="112"/>
+      <c r="R18" s="113"/>
       <c r="S18" s="110"/>
       <c r="T18" s="111"/>
       <c r="U18" s="111"/>
@@ -4523,7 +4604,7 @@
       <c r="X18" s="111"/>
       <c r="Y18" s="111"/>
       <c r="Z18" s="111"/>
-      <c r="AA18" s="112"/>
+      <c r="AA18" s="113"/>
       <c r="AB18" s="110"/>
       <c r="AC18" s="111"/>
       <c r="AD18" s="111"/>
@@ -4548,7 +4629,7 @@
       <c r="AW18" s="111"/>
       <c r="AX18" s="111"/>
       <c r="AY18" s="111"/>
-      <c r="AZ18" s="113"/>
+      <c r="AZ18" s="112"/>
     </row>
     <row r="19" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="str">
@@ -4562,7 +4643,7 @@
       <c r="F19" s="111"/>
       <c r="G19" s="111"/>
       <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
+      <c r="I19" s="113"/>
       <c r="J19" s="110"/>
       <c r="K19" s="111"/>
       <c r="L19" s="111"/>
@@ -4571,7 +4652,7 @@
       <c r="O19" s="111"/>
       <c r="P19" s="111"/>
       <c r="Q19" s="111"/>
-      <c r="R19" s="112"/>
+      <c r="R19" s="113"/>
       <c r="S19" s="110"/>
       <c r="T19" s="111"/>
       <c r="U19" s="111"/>
@@ -4580,7 +4661,7 @@
       <c r="X19" s="111"/>
       <c r="Y19" s="111"/>
       <c r="Z19" s="111"/>
-      <c r="AA19" s="112"/>
+      <c r="AA19" s="113"/>
       <c r="AB19" s="110"/>
       <c r="AC19" s="111"/>
       <c r="AD19" s="111"/>
@@ -4605,7 +4686,7 @@
       <c r="AW19" s="111"/>
       <c r="AX19" s="111"/>
       <c r="AY19" s="111"/>
-      <c r="AZ19" s="113"/>
+      <c r="AZ19" s="112"/>
     </row>
     <row r="20" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="str">
@@ -4619,7 +4700,7 @@
       <c r="F20" s="111"/>
       <c r="G20" s="111"/>
       <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
+      <c r="I20" s="113"/>
       <c r="J20" s="110"/>
       <c r="K20" s="111"/>
       <c r="L20" s="111"/>
@@ -4628,7 +4709,7 @@
       <c r="O20" s="111"/>
       <c r="P20" s="111"/>
       <c r="Q20" s="111"/>
-      <c r="R20" s="112"/>
+      <c r="R20" s="113"/>
       <c r="S20" s="110"/>
       <c r="T20" s="111"/>
       <c r="U20" s="111"/>
@@ -4637,7 +4718,7 @@
       <c r="X20" s="111"/>
       <c r="Y20" s="111"/>
       <c r="Z20" s="111"/>
-      <c r="AA20" s="112"/>
+      <c r="AA20" s="113"/>
       <c r="AB20" s="110"/>
       <c r="AC20" s="111"/>
       <c r="AD20" s="111"/>
@@ -4662,7 +4743,7 @@
       <c r="AW20" s="111"/>
       <c r="AX20" s="111"/>
       <c r="AY20" s="111"/>
-      <c r="AZ20" s="113"/>
+      <c r="AZ20" s="112"/>
     </row>
     <row r="21" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="str">
@@ -4676,7 +4757,7 @@
       <c r="F21" s="111"/>
       <c r="G21" s="111"/>
       <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
+      <c r="I21" s="113"/>
       <c r="J21" s="110"/>
       <c r="K21" s="111"/>
       <c r="L21" s="111"/>
@@ -4685,7 +4766,7 @@
       <c r="O21" s="111"/>
       <c r="P21" s="111"/>
       <c r="Q21" s="111"/>
-      <c r="R21" s="112"/>
+      <c r="R21" s="113"/>
       <c r="S21" s="110"/>
       <c r="T21" s="111"/>
       <c r="U21" s="111"/>
@@ -4694,7 +4775,7 @@
       <c r="X21" s="111"/>
       <c r="Y21" s="111"/>
       <c r="Z21" s="111"/>
-      <c r="AA21" s="112"/>
+      <c r="AA21" s="113"/>
       <c r="AB21" s="110"/>
       <c r="AC21" s="111"/>
       <c r="AD21" s="111"/>
@@ -4719,7 +4800,7 @@
       <c r="AW21" s="111"/>
       <c r="AX21" s="111"/>
       <c r="AY21" s="111"/>
-      <c r="AZ21" s="113"/>
+      <c r="AZ21" s="112"/>
     </row>
     <row r="22" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="str">
@@ -4733,7 +4814,7 @@
       <c r="F22" s="111"/>
       <c r="G22" s="111"/>
       <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
+      <c r="I22" s="113"/>
       <c r="J22" s="110"/>
       <c r="K22" s="111"/>
       <c r="L22" s="111"/>
@@ -4742,7 +4823,7 @@
       <c r="O22" s="111"/>
       <c r="P22" s="111"/>
       <c r="Q22" s="111"/>
-      <c r="R22" s="112"/>
+      <c r="R22" s="113"/>
       <c r="S22" s="110"/>
       <c r="T22" s="111"/>
       <c r="U22" s="111"/>
@@ -4751,7 +4832,7 @@
       <c r="X22" s="111"/>
       <c r="Y22" s="111"/>
       <c r="Z22" s="111"/>
-      <c r="AA22" s="112"/>
+      <c r="AA22" s="113"/>
       <c r="AB22" s="110"/>
       <c r="AC22" s="111"/>
       <c r="AD22" s="111"/>
@@ -4776,7 +4857,7 @@
       <c r="AW22" s="111"/>
       <c r="AX22" s="111"/>
       <c r="AY22" s="111"/>
-      <c r="AZ22" s="113"/>
+      <c r="AZ22" s="112"/>
     </row>
     <row r="23" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="str">
@@ -4790,7 +4871,7 @@
       <c r="F23" s="111"/>
       <c r="G23" s="111"/>
       <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
+      <c r="I23" s="113"/>
       <c r="J23" s="110"/>
       <c r="K23" s="111"/>
       <c r="L23" s="111"/>
@@ -4799,7 +4880,7 @@
       <c r="O23" s="111"/>
       <c r="P23" s="111"/>
       <c r="Q23" s="111"/>
-      <c r="R23" s="112"/>
+      <c r="R23" s="113"/>
       <c r="S23" s="110"/>
       <c r="T23" s="111"/>
       <c r="U23" s="111"/>
@@ -4808,7 +4889,7 @@
       <c r="X23" s="111"/>
       <c r="Y23" s="111"/>
       <c r="Z23" s="111"/>
-      <c r="AA23" s="112"/>
+      <c r="AA23" s="113"/>
       <c r="AB23" s="110"/>
       <c r="AC23" s="111"/>
       <c r="AD23" s="111"/>
@@ -4833,7 +4914,7 @@
       <c r="AW23" s="111"/>
       <c r="AX23" s="111"/>
       <c r="AY23" s="111"/>
-      <c r="AZ23" s="113"/>
+      <c r="AZ23" s="112"/>
     </row>
     <row r="24" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="str">
@@ -4847,7 +4928,7 @@
       <c r="F24" s="111"/>
       <c r="G24" s="111"/>
       <c r="H24" s="111"/>
-      <c r="I24" s="112"/>
+      <c r="I24" s="113"/>
       <c r="J24" s="110"/>
       <c r="K24" s="111"/>
       <c r="L24" s="111"/>
@@ -4856,7 +4937,7 @@
       <c r="O24" s="111"/>
       <c r="P24" s="111"/>
       <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="R24" s="113"/>
       <c r="S24" s="110"/>
       <c r="T24" s="111"/>
       <c r="U24" s="111"/>
@@ -4865,7 +4946,7 @@
       <c r="X24" s="111"/>
       <c r="Y24" s="111"/>
       <c r="Z24" s="111"/>
-      <c r="AA24" s="112"/>
+      <c r="AA24" s="113"/>
       <c r="AB24" s="110"/>
       <c r="AC24" s="111"/>
       <c r="AD24" s="111"/>
@@ -4890,7 +4971,7 @@
       <c r="AW24" s="111"/>
       <c r="AX24" s="111"/>
       <c r="AY24" s="111"/>
-      <c r="AZ24" s="113"/>
+      <c r="AZ24" s="112"/>
     </row>
     <row r="25" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="str">
@@ -4904,7 +4985,7 @@
       <c r="F25" s="111"/>
       <c r="G25" s="111"/>
       <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
+      <c r="I25" s="113"/>
       <c r="J25" s="110"/>
       <c r="K25" s="111"/>
       <c r="L25" s="111"/>
@@ -4913,7 +4994,7 @@
       <c r="O25" s="111"/>
       <c r="P25" s="111"/>
       <c r="Q25" s="111"/>
-      <c r="R25" s="112"/>
+      <c r="R25" s="113"/>
       <c r="S25" s="110"/>
       <c r="T25" s="111"/>
       <c r="U25" s="111"/>
@@ -4922,7 +5003,7 @@
       <c r="X25" s="111"/>
       <c r="Y25" s="111"/>
       <c r="Z25" s="111"/>
-      <c r="AA25" s="112"/>
+      <c r="AA25" s="113"/>
       <c r="AB25" s="110"/>
       <c r="AC25" s="111"/>
       <c r="AD25" s="111"/>
@@ -4947,7 +5028,7 @@
       <c r="AW25" s="111"/>
       <c r="AX25" s="111"/>
       <c r="AY25" s="111"/>
-      <c r="AZ25" s="113"/>
+      <c r="AZ25" s="112"/>
     </row>
     <row r="26" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="str">
@@ -4961,7 +5042,7 @@
       <c r="F26" s="111"/>
       <c r="G26" s="111"/>
       <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
+      <c r="I26" s="113"/>
       <c r="J26" s="110"/>
       <c r="K26" s="111"/>
       <c r="L26" s="111"/>
@@ -4970,7 +5051,7 @@
       <c r="O26" s="111"/>
       <c r="P26" s="111"/>
       <c r="Q26" s="111"/>
-      <c r="R26" s="112"/>
+      <c r="R26" s="113"/>
       <c r="S26" s="110"/>
       <c r="T26" s="111"/>
       <c r="U26" s="111"/>
@@ -4979,7 +5060,7 @@
       <c r="X26" s="111"/>
       <c r="Y26" s="111"/>
       <c r="Z26" s="111"/>
-      <c r="AA26" s="112"/>
+      <c r="AA26" s="113"/>
       <c r="AB26" s="110"/>
       <c r="AC26" s="111"/>
       <c r="AD26" s="111"/>
@@ -5004,7 +5085,7 @@
       <c r="AW26" s="111"/>
       <c r="AX26" s="111"/>
       <c r="AY26" s="111"/>
-      <c r="AZ26" s="113"/>
+      <c r="AZ26" s="112"/>
     </row>
     <row r="27" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="str">
@@ -5018,7 +5099,7 @@
       <c r="F27" s="111"/>
       <c r="G27" s="111"/>
       <c r="H27" s="111"/>
-      <c r="I27" s="112"/>
+      <c r="I27" s="113"/>
       <c r="J27" s="110"/>
       <c r="K27" s="111"/>
       <c r="L27" s="111"/>
@@ -5027,7 +5108,7 @@
       <c r="O27" s="111"/>
       <c r="P27" s="111"/>
       <c r="Q27" s="111"/>
-      <c r="R27" s="112"/>
+      <c r="R27" s="113"/>
       <c r="S27" s="110"/>
       <c r="T27" s="111"/>
       <c r="U27" s="111"/>
@@ -5036,7 +5117,7 @@
       <c r="X27" s="111"/>
       <c r="Y27" s="111"/>
       <c r="Z27" s="111"/>
-      <c r="AA27" s="112"/>
+      <c r="AA27" s="113"/>
       <c r="AB27" s="110"/>
       <c r="AC27" s="111"/>
       <c r="AD27" s="111"/>
@@ -5061,7 +5142,7 @@
       <c r="AW27" s="111"/>
       <c r="AX27" s="111"/>
       <c r="AY27" s="111"/>
-      <c r="AZ27" s="113"/>
+      <c r="AZ27" s="112"/>
     </row>
     <row r="28" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="str">
@@ -5075,7 +5156,7 @@
       <c r="F28" s="111"/>
       <c r="G28" s="111"/>
       <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
+      <c r="I28" s="113"/>
       <c r="J28" s="110"/>
       <c r="K28" s="111"/>
       <c r="L28" s="111"/>
@@ -5084,7 +5165,7 @@
       <c r="O28" s="111"/>
       <c r="P28" s="111"/>
       <c r="Q28" s="111"/>
-      <c r="R28" s="112"/>
+      <c r="R28" s="113"/>
       <c r="S28" s="110"/>
       <c r="T28" s="111"/>
       <c r="U28" s="111"/>
@@ -5093,7 +5174,7 @@
       <c r="X28" s="111"/>
       <c r="Y28" s="111"/>
       <c r="Z28" s="111"/>
-      <c r="AA28" s="112"/>
+      <c r="AA28" s="113"/>
       <c r="AB28" s="110"/>
       <c r="AC28" s="111"/>
       <c r="AD28" s="111"/>
@@ -5118,7 +5199,7 @@
       <c r="AW28" s="111"/>
       <c r="AX28" s="111"/>
       <c r="AY28" s="111"/>
-      <c r="AZ28" s="113"/>
+      <c r="AZ28" s="112"/>
     </row>
     <row r="29" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="str">
@@ -5132,7 +5213,7 @@
       <c r="F29" s="111"/>
       <c r="G29" s="111"/>
       <c r="H29" s="111"/>
-      <c r="I29" s="112"/>
+      <c r="I29" s="113"/>
       <c r="J29" s="110"/>
       <c r="K29" s="111"/>
       <c r="L29" s="111"/>
@@ -5141,7 +5222,7 @@
       <c r="O29" s="111"/>
       <c r="P29" s="111"/>
       <c r="Q29" s="111"/>
-      <c r="R29" s="112"/>
+      <c r="R29" s="113"/>
       <c r="S29" s="110"/>
       <c r="T29" s="111"/>
       <c r="U29" s="111"/>
@@ -5150,7 +5231,7 @@
       <c r="X29" s="111"/>
       <c r="Y29" s="111"/>
       <c r="Z29" s="111"/>
-      <c r="AA29" s="112"/>
+      <c r="AA29" s="113"/>
       <c r="AB29" s="110"/>
       <c r="AC29" s="111"/>
       <c r="AD29" s="111"/>
@@ -5175,7 +5256,7 @@
       <c r="AW29" s="111"/>
       <c r="AX29" s="111"/>
       <c r="AY29" s="111"/>
-      <c r="AZ29" s="113"/>
+      <c r="AZ29" s="112"/>
     </row>
     <row r="30" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="str">
@@ -5189,7 +5270,7 @@
       <c r="F30" s="111"/>
       <c r="G30" s="111"/>
       <c r="H30" s="111"/>
-      <c r="I30" s="112"/>
+      <c r="I30" s="113"/>
       <c r="J30" s="110"/>
       <c r="K30" s="111"/>
       <c r="L30" s="111"/>
@@ -5198,7 +5279,7 @@
       <c r="O30" s="111"/>
       <c r="P30" s="111"/>
       <c r="Q30" s="111"/>
-      <c r="R30" s="112"/>
+      <c r="R30" s="113"/>
       <c r="S30" s="110"/>
       <c r="T30" s="111"/>
       <c r="U30" s="111"/>
@@ -5207,7 +5288,7 @@
       <c r="X30" s="111"/>
       <c r="Y30" s="111"/>
       <c r="Z30" s="111"/>
-      <c r="AA30" s="112"/>
+      <c r="AA30" s="113"/>
       <c r="AB30" s="110"/>
       <c r="AC30" s="111"/>
       <c r="AD30" s="111"/>
@@ -5232,7 +5313,7 @@
       <c r="AW30" s="111"/>
       <c r="AX30" s="111"/>
       <c r="AY30" s="111"/>
-      <c r="AZ30" s="113"/>
+      <c r="AZ30" s="112"/>
     </row>
     <row r="31" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="str">
@@ -5246,7 +5327,7 @@
       <c r="F31" s="111"/>
       <c r="G31" s="111"/>
       <c r="H31" s="111"/>
-      <c r="I31" s="112"/>
+      <c r="I31" s="113"/>
       <c r="J31" s="110"/>
       <c r="K31" s="111"/>
       <c r="L31" s="111"/>
@@ -5255,7 +5336,7 @@
       <c r="O31" s="111"/>
       <c r="P31" s="111"/>
       <c r="Q31" s="111"/>
-      <c r="R31" s="112"/>
+      <c r="R31" s="113"/>
       <c r="S31" s="110"/>
       <c r="T31" s="111"/>
       <c r="U31" s="111"/>
@@ -5264,7 +5345,7 @@
       <c r="X31" s="111"/>
       <c r="Y31" s="111"/>
       <c r="Z31" s="111"/>
-      <c r="AA31" s="112"/>
+      <c r="AA31" s="113"/>
       <c r="AB31" s="110"/>
       <c r="AC31" s="111"/>
       <c r="AD31" s="111"/>
@@ -5289,7 +5370,7 @@
       <c r="AW31" s="111"/>
       <c r="AX31" s="111"/>
       <c r="AY31" s="111"/>
-      <c r="AZ31" s="113"/>
+      <c r="AZ31" s="112"/>
     </row>
     <row r="32" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="49" t="str">
@@ -5303,7 +5384,7 @@
       <c r="F32" s="111"/>
       <c r="G32" s="111"/>
       <c r="H32" s="111"/>
-      <c r="I32" s="112"/>
+      <c r="I32" s="113"/>
       <c r="J32" s="110"/>
       <c r="K32" s="111"/>
       <c r="L32" s="111"/>
@@ -5312,7 +5393,7 @@
       <c r="O32" s="111"/>
       <c r="P32" s="111"/>
       <c r="Q32" s="111"/>
-      <c r="R32" s="112"/>
+      <c r="R32" s="113"/>
       <c r="S32" s="110"/>
       <c r="T32" s="111"/>
       <c r="U32" s="111"/>
@@ -5321,7 +5402,7 @@
       <c r="X32" s="111"/>
       <c r="Y32" s="111"/>
       <c r="Z32" s="111"/>
-      <c r="AA32" s="112"/>
+      <c r="AA32" s="113"/>
       <c r="AB32" s="110"/>
       <c r="AC32" s="111"/>
       <c r="AD32" s="111"/>
@@ -5346,7 +5427,7 @@
       <c r="AW32" s="111"/>
       <c r="AX32" s="111"/>
       <c r="AY32" s="111"/>
-      <c r="AZ32" s="113"/>
+      <c r="AZ32" s="112"/>
     </row>
     <row r="33" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="str">
@@ -5360,7 +5441,7 @@
       <c r="F33" s="111"/>
       <c r="G33" s="111"/>
       <c r="H33" s="111"/>
-      <c r="I33" s="112"/>
+      <c r="I33" s="113"/>
       <c r="J33" s="110"/>
       <c r="K33" s="111"/>
       <c r="L33" s="111"/>
@@ -5369,7 +5450,7 @@
       <c r="O33" s="111"/>
       <c r="P33" s="111"/>
       <c r="Q33" s="111"/>
-      <c r="R33" s="112"/>
+      <c r="R33" s="113"/>
       <c r="S33" s="110"/>
       <c r="T33" s="111"/>
       <c r="U33" s="111"/>
@@ -5378,7 +5459,7 @@
       <c r="X33" s="111"/>
       <c r="Y33" s="111"/>
       <c r="Z33" s="111"/>
-      <c r="AA33" s="112"/>
+      <c r="AA33" s="113"/>
       <c r="AB33" s="110"/>
       <c r="AC33" s="111"/>
       <c r="AD33" s="111"/>
@@ -5403,7 +5484,7 @@
       <c r="AW33" s="111"/>
       <c r="AX33" s="111"/>
       <c r="AY33" s="111"/>
-      <c r="AZ33" s="113"/>
+      <c r="AZ33" s="112"/>
     </row>
     <row r="34" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="str">
@@ -5417,7 +5498,7 @@
       <c r="F34" s="111"/>
       <c r="G34" s="111"/>
       <c r="H34" s="111"/>
-      <c r="I34" s="112"/>
+      <c r="I34" s="113"/>
       <c r="J34" s="110"/>
       <c r="K34" s="111"/>
       <c r="L34" s="111"/>
@@ -5426,7 +5507,7 @@
       <c r="O34" s="111"/>
       <c r="P34" s="111"/>
       <c r="Q34" s="111"/>
-      <c r="R34" s="112"/>
+      <c r="R34" s="113"/>
       <c r="S34" s="110"/>
       <c r="T34" s="111"/>
       <c r="U34" s="111"/>
@@ -5435,7 +5516,7 @@
       <c r="X34" s="111"/>
       <c r="Y34" s="111"/>
       <c r="Z34" s="111"/>
-      <c r="AA34" s="112"/>
+      <c r="AA34" s="113"/>
       <c r="AB34" s="110"/>
       <c r="AC34" s="111"/>
       <c r="AD34" s="111"/>
@@ -5460,7 +5541,7 @@
       <c r="AW34" s="111"/>
       <c r="AX34" s="111"/>
       <c r="AY34" s="111"/>
-      <c r="AZ34" s="113"/>
+      <c r="AZ34" s="112"/>
     </row>
     <row r="35" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="str">
@@ -5474,7 +5555,7 @@
       <c r="F35" s="111"/>
       <c r="G35" s="111"/>
       <c r="H35" s="111"/>
-      <c r="I35" s="112"/>
+      <c r="I35" s="113"/>
       <c r="J35" s="110"/>
       <c r="K35" s="111"/>
       <c r="L35" s="111"/>
@@ -5483,7 +5564,7 @@
       <c r="O35" s="111"/>
       <c r="P35" s="111"/>
       <c r="Q35" s="111"/>
-      <c r="R35" s="112"/>
+      <c r="R35" s="113"/>
       <c r="S35" s="110"/>
       <c r="T35" s="111"/>
       <c r="U35" s="111"/>
@@ -5492,7 +5573,7 @@
       <c r="X35" s="111"/>
       <c r="Y35" s="111"/>
       <c r="Z35" s="111"/>
-      <c r="AA35" s="112"/>
+      <c r="AA35" s="113"/>
       <c r="AB35" s="110"/>
       <c r="AC35" s="111"/>
       <c r="AD35" s="111"/>
@@ -5517,7 +5598,7 @@
       <c r="AW35" s="111"/>
       <c r="AX35" s="111"/>
       <c r="AY35" s="111"/>
-      <c r="AZ35" s="113"/>
+      <c r="AZ35" s="112"/>
     </row>
     <row r="36" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="str">
@@ -5531,7 +5612,7 @@
       <c r="F36" s="111"/>
       <c r="G36" s="111"/>
       <c r="H36" s="111"/>
-      <c r="I36" s="112"/>
+      <c r="I36" s="113"/>
       <c r="J36" s="110"/>
       <c r="K36" s="111"/>
       <c r="L36" s="111"/>
@@ -5540,7 +5621,7 @@
       <c r="O36" s="111"/>
       <c r="P36" s="111"/>
       <c r="Q36" s="111"/>
-      <c r="R36" s="112"/>
+      <c r="R36" s="113"/>
       <c r="S36" s="110"/>
       <c r="T36" s="111"/>
       <c r="U36" s="111"/>
@@ -5549,7 +5630,7 @@
       <c r="X36" s="111"/>
       <c r="Y36" s="111"/>
       <c r="Z36" s="111"/>
-      <c r="AA36" s="112"/>
+      <c r="AA36" s="113"/>
       <c r="AB36" s="110"/>
       <c r="AC36" s="111"/>
       <c r="AD36" s="111"/>
@@ -5574,7 +5655,7 @@
       <c r="AW36" s="111"/>
       <c r="AX36" s="111"/>
       <c r="AY36" s="111"/>
-      <c r="AZ36" s="113"/>
+      <c r="AZ36" s="112"/>
     </row>
     <row r="37" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="str">
@@ -5588,7 +5669,7 @@
       <c r="F37" s="111"/>
       <c r="G37" s="111"/>
       <c r="H37" s="111"/>
-      <c r="I37" s="112"/>
+      <c r="I37" s="113"/>
       <c r="J37" s="110"/>
       <c r="K37" s="111"/>
       <c r="L37" s="111"/>
@@ -5597,7 +5678,7 @@
       <c r="O37" s="111"/>
       <c r="P37" s="111"/>
       <c r="Q37" s="111"/>
-      <c r="R37" s="112"/>
+      <c r="R37" s="113"/>
       <c r="S37" s="110"/>
       <c r="T37" s="111"/>
       <c r="U37" s="111"/>
@@ -5606,7 +5687,7 @@
       <c r="X37" s="111"/>
       <c r="Y37" s="111"/>
       <c r="Z37" s="111"/>
-      <c r="AA37" s="112"/>
+      <c r="AA37" s="113"/>
       <c r="AB37" s="110"/>
       <c r="AC37" s="111"/>
       <c r="AD37" s="111"/>
@@ -5631,7 +5712,7 @@
       <c r="AW37" s="111"/>
       <c r="AX37" s="111"/>
       <c r="AY37" s="111"/>
-      <c r="AZ37" s="113"/>
+      <c r="AZ37" s="112"/>
     </row>
     <row r="38" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="str">
@@ -5645,7 +5726,7 @@
       <c r="F38" s="111"/>
       <c r="G38" s="111"/>
       <c r="H38" s="111"/>
-      <c r="I38" s="112"/>
+      <c r="I38" s="113"/>
       <c r="J38" s="110"/>
       <c r="K38" s="111"/>
       <c r="L38" s="111"/>
@@ -5654,7 +5735,7 @@
       <c r="O38" s="111"/>
       <c r="P38" s="111"/>
       <c r="Q38" s="111"/>
-      <c r="R38" s="112"/>
+      <c r="R38" s="113"/>
       <c r="S38" s="110"/>
       <c r="T38" s="111"/>
       <c r="U38" s="111"/>
@@ -5663,7 +5744,7 @@
       <c r="X38" s="111"/>
       <c r="Y38" s="111"/>
       <c r="Z38" s="111"/>
-      <c r="AA38" s="112"/>
+      <c r="AA38" s="113"/>
       <c r="AB38" s="110"/>
       <c r="AC38" s="111"/>
       <c r="AD38" s="111"/>
@@ -5688,7 +5769,7 @@
       <c r="AW38" s="111"/>
       <c r="AX38" s="111"/>
       <c r="AY38" s="111"/>
-      <c r="AZ38" s="113"/>
+      <c r="AZ38" s="112"/>
     </row>
     <row r="39" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="49" t="str">
@@ -5702,7 +5783,7 @@
       <c r="F39" s="111"/>
       <c r="G39" s="111"/>
       <c r="H39" s="111"/>
-      <c r="I39" s="112"/>
+      <c r="I39" s="113"/>
       <c r="J39" s="110"/>
       <c r="K39" s="111"/>
       <c r="L39" s="111"/>
@@ -5711,7 +5792,7 @@
       <c r="O39" s="111"/>
       <c r="P39" s="111"/>
       <c r="Q39" s="111"/>
-      <c r="R39" s="112"/>
+      <c r="R39" s="113"/>
       <c r="S39" s="110"/>
       <c r="T39" s="111"/>
       <c r="U39" s="111"/>
@@ -5720,7 +5801,7 @@
       <c r="X39" s="111"/>
       <c r="Y39" s="111"/>
       <c r="Z39" s="111"/>
-      <c r="AA39" s="112"/>
+      <c r="AA39" s="113"/>
       <c r="AB39" s="110"/>
       <c r="AC39" s="111"/>
       <c r="AD39" s="111"/>
@@ -5745,7 +5826,7 @@
       <c r="AW39" s="111"/>
       <c r="AX39" s="111"/>
       <c r="AY39" s="111"/>
-      <c r="AZ39" s="113"/>
+      <c r="AZ39" s="112"/>
     </row>
     <row r="40" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="49" t="str">
@@ -5759,7 +5840,7 @@
       <c r="F40" s="111"/>
       <c r="G40" s="111"/>
       <c r="H40" s="111"/>
-      <c r="I40" s="112"/>
+      <c r="I40" s="113"/>
       <c r="J40" s="110"/>
       <c r="K40" s="111"/>
       <c r="L40" s="111"/>
@@ -5768,7 +5849,7 @@
       <c r="O40" s="111"/>
       <c r="P40" s="111"/>
       <c r="Q40" s="111"/>
-      <c r="R40" s="112"/>
+      <c r="R40" s="113"/>
       <c r="S40" s="110"/>
       <c r="T40" s="111"/>
       <c r="U40" s="111"/>
@@ -5777,7 +5858,7 @@
       <c r="X40" s="111"/>
       <c r="Y40" s="111"/>
       <c r="Z40" s="111"/>
-      <c r="AA40" s="112"/>
+      <c r="AA40" s="113"/>
       <c r="AB40" s="110"/>
       <c r="AC40" s="111"/>
       <c r="AD40" s="111"/>
@@ -5802,7 +5883,7 @@
       <c r="AW40" s="111"/>
       <c r="AX40" s="111"/>
       <c r="AY40" s="111"/>
-      <c r="AZ40" s="113"/>
+      <c r="AZ40" s="112"/>
     </row>
     <row r="41" spans="1:52" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="49" t="str">
@@ -5816,7 +5897,7 @@
       <c r="F41" s="111"/>
       <c r="G41" s="111"/>
       <c r="H41" s="111"/>
-      <c r="I41" s="112"/>
+      <c r="I41" s="113"/>
       <c r="J41" s="110"/>
       <c r="K41" s="111"/>
       <c r="L41" s="111"/>
@@ -5825,7 +5906,7 @@
       <c r="O41" s="111"/>
       <c r="P41" s="111"/>
       <c r="Q41" s="111"/>
-      <c r="R41" s="112"/>
+      <c r="R41" s="113"/>
       <c r="S41" s="110"/>
       <c r="T41" s="111"/>
       <c r="U41" s="111"/>
@@ -5834,7 +5915,7 @@
       <c r="X41" s="111"/>
       <c r="Y41" s="111"/>
       <c r="Z41" s="111"/>
-      <c r="AA41" s="112"/>
+      <c r="AA41" s="113"/>
       <c r="AB41" s="110"/>
       <c r="AC41" s="111"/>
       <c r="AD41" s="111"/>
@@ -5859,7 +5940,7 @@
       <c r="AW41" s="111"/>
       <c r="AX41" s="111"/>
       <c r="AY41" s="111"/>
-      <c r="AZ41" s="113"/>
+      <c r="AZ41" s="112"/>
     </row>
     <row r="42" spans="1:52" s="37" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="31"/>
@@ -5981,6 +6062,142 @@
     </row>
   </sheetData>
   <mergeCells count="157">
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="S41:AA41"/>
+    <mergeCell ref="AB41:AZ41"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="S39:AA39"/>
+    <mergeCell ref="AB39:AZ39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="S40:AA40"/>
+    <mergeCell ref="AB40:AZ40"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="S37:AA37"/>
+    <mergeCell ref="AB37:AZ37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="S38:AA38"/>
+    <mergeCell ref="AB38:AZ38"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:R35"/>
+    <mergeCell ref="S35:AA35"/>
+    <mergeCell ref="AB35:AZ35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="S36:AA36"/>
+    <mergeCell ref="AB36:AZ36"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="S33:AA33"/>
+    <mergeCell ref="AB33:AZ33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:R34"/>
+    <mergeCell ref="S34:AA34"/>
+    <mergeCell ref="AB34:AZ34"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="S31:AA31"/>
+    <mergeCell ref="AB31:AZ31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="S32:AA32"/>
+    <mergeCell ref="AB32:AZ32"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="S29:AA29"/>
+    <mergeCell ref="AB29:AZ29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="S30:AA30"/>
+    <mergeCell ref="AB30:AZ30"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="S27:AA27"/>
+    <mergeCell ref="AB27:AZ27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="S28:AA28"/>
+    <mergeCell ref="AB28:AZ28"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:R25"/>
+    <mergeCell ref="S25:AA25"/>
+    <mergeCell ref="AB25:AZ25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:R26"/>
+    <mergeCell ref="S26:AA26"/>
+    <mergeCell ref="AB26:AZ26"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:R23"/>
+    <mergeCell ref="S23:AA23"/>
+    <mergeCell ref="AB23:AZ23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:R24"/>
+    <mergeCell ref="S24:AA24"/>
+    <mergeCell ref="AB24:AZ24"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="S21:AA21"/>
+    <mergeCell ref="AB21:AZ21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="S22:AA22"/>
+    <mergeCell ref="AB22:AZ22"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="S19:AA19"/>
+    <mergeCell ref="AB19:AZ19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:R20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AB20:AZ20"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="AB17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="S18:AA18"/>
+    <mergeCell ref="AB18:AZ18"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="S15:AA15"/>
+    <mergeCell ref="AB15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="S16:AA16"/>
+    <mergeCell ref="AB16:AZ16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="S13:AA13"/>
+    <mergeCell ref="AB13:AZ13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="AB14:AZ14"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:R11"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AB11:AZ11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:R12"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="AB12:AZ12"/>
+    <mergeCell ref="S9:AA9"/>
+    <mergeCell ref="AB9:AZ9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:R10"/>
+    <mergeCell ref="S10:AA10"/>
+    <mergeCell ref="AB10:AZ10"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="J9:R9"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="AB7:AZ7"/>
     <mergeCell ref="S7:AA7"/>
@@ -6002,142 +6219,6 @@
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="S9:AA9"/>
-    <mergeCell ref="AB9:AZ9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:R10"/>
-    <mergeCell ref="S10:AA10"/>
-    <mergeCell ref="AB10:AZ10"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:R8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="J9:R9"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="S13:AA13"/>
-    <mergeCell ref="AB13:AZ13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:R14"/>
-    <mergeCell ref="S14:AA14"/>
-    <mergeCell ref="AB14:AZ14"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:R11"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="AB11:AZ11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:R12"/>
-    <mergeCell ref="S12:AA12"/>
-    <mergeCell ref="AB12:AZ12"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:R17"/>
-    <mergeCell ref="S17:AA17"/>
-    <mergeCell ref="AB17:AZ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="S18:AA18"/>
-    <mergeCell ref="AB18:AZ18"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:R15"/>
-    <mergeCell ref="S15:AA15"/>
-    <mergeCell ref="AB15:AZ15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:R16"/>
-    <mergeCell ref="S16:AA16"/>
-    <mergeCell ref="AB16:AZ16"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="S21:AA21"/>
-    <mergeCell ref="AB21:AZ21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:R22"/>
-    <mergeCell ref="S22:AA22"/>
-    <mergeCell ref="AB22:AZ22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:R19"/>
-    <mergeCell ref="S19:AA19"/>
-    <mergeCell ref="AB19:AZ19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:R20"/>
-    <mergeCell ref="S20:AA20"/>
-    <mergeCell ref="AB20:AZ20"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:R25"/>
-    <mergeCell ref="S25:AA25"/>
-    <mergeCell ref="AB25:AZ25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:R26"/>
-    <mergeCell ref="S26:AA26"/>
-    <mergeCell ref="AB26:AZ26"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:R23"/>
-    <mergeCell ref="S23:AA23"/>
-    <mergeCell ref="AB23:AZ23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:R24"/>
-    <mergeCell ref="S24:AA24"/>
-    <mergeCell ref="AB24:AZ24"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:R29"/>
-    <mergeCell ref="S29:AA29"/>
-    <mergeCell ref="AB29:AZ29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="S30:AA30"/>
-    <mergeCell ref="AB30:AZ30"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:R27"/>
-    <mergeCell ref="S27:AA27"/>
-    <mergeCell ref="AB27:AZ27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:R28"/>
-    <mergeCell ref="S28:AA28"/>
-    <mergeCell ref="AB28:AZ28"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:R33"/>
-    <mergeCell ref="S33:AA33"/>
-    <mergeCell ref="AB33:AZ33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:R34"/>
-    <mergeCell ref="S34:AA34"/>
-    <mergeCell ref="AB34:AZ34"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="S31:AA31"/>
-    <mergeCell ref="AB31:AZ31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="S32:AA32"/>
-    <mergeCell ref="AB32:AZ32"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="S37:AA37"/>
-    <mergeCell ref="AB37:AZ37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="S38:AA38"/>
-    <mergeCell ref="AB38:AZ38"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:R35"/>
-    <mergeCell ref="S35:AA35"/>
-    <mergeCell ref="AB35:AZ35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="S36:AA36"/>
-    <mergeCell ref="AB36:AZ36"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="S41:AA41"/>
-    <mergeCell ref="AB41:AZ41"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="S39:AA39"/>
-    <mergeCell ref="AB39:AZ39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="S40:AA40"/>
-    <mergeCell ref="AB40:AZ40"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
